--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289787.9252410302</v>
+        <v>284848.8198528511</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6910428.155560138</v>
+        <v>6037395.839817926</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13105198.29760689</v>
+        <v>12249539.32494794</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6290940.358864951</v>
+        <v>6650528.355242323</v>
       </c>
     </row>
     <row r="11">
@@ -713,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>202.5496269016835</v>
-      </c>
-      <c r="V2" t="n">
-        <v>229.9609751381512</v>
       </c>
       <c r="W2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y2" t="n">
         <v>229.9609751381512</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.71888539121008</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>72.68684238776719</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6846499321096</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,73 +898,73 @@
         <v>229.9609751381512</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D5" t="n">
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="E5" t="n">
-        <v>65.59588116322358</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>136.9537457384598</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +977,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>25.72584339925746</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>18.53489446993292</v>
       </c>
     </row>
     <row r="7">
@@ -1063,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>86.64940239199029</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1209,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>45.01196741270183</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="10">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="F11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>202.5496269016835</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1500,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>207.9625118881446</v>
+        <v>79.36679566671111</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1512,10 +1514,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
-        <v>61.12539172422213</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="13">
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1610,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>229.9609751381512</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="E14" t="n">
         <v>229.9609751381512</v>
@@ -1619,7 +1621,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G14" t="n">
-        <v>202.5496269016834</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1692,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>79.3667956667111</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
         <v>220.3146016126436</v>
@@ -1752,7 +1754,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.5210747552478</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="16">
@@ -1768,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
         <v>131.7634811092929</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>177.1837061435089</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>25.35996799970812</v>
       </c>
       <c r="V17" t="n">
-        <v>229.9609751381512</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>229.9609751381512</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>229.9609751381512</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E18" t="n">
-        <v>79.3667956667111</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.36674055617013</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>229.9609751381512</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>229.9609751381512</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>115.2540412271705</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>361.4698460312814</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2093,10 +2095,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>231.3316814702305</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>240.5571587416721</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>154.7572460957208</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2320,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>298.8218783245197</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>298.8218783245197</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>106.000888808771</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>4.823346420431383</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>194.9459435089323</v>
       </c>
       <c r="H26" t="n">
-        <v>306.6453431511129</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2713,10 +2715,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>87.95308749070813</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.0551979971753</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2800,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>48.19168740727122</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>324.1983974055597</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2968,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>97.66047449693666</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>161.4085122120593</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>246.0696275076218</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3092,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3126,7 +3128,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820752</v>
+        <v>48.89338144820825</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3190,22 +3192,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>34.00535984814132</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>154.7572460957211</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3283,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>214.8189902468617</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>240.7431765005762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
         <v>133.5813703291298</v>
@@ -3433,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>22.60711041101165</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>147.8279795613426</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>131.6852707786942</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -3560,16 +3562,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>303.7462930114523</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>22.60711041101165</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>86.64940239199063</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>320.5127299397348</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>401.6041038634594</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3864,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67787267091717</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830806</v>
+        <v>175.2139736830814</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>175.6983641828944</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>25.35996799970785</v>
       </c>
       <c r="E44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.783601537963992</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,10 +4106,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>125.2470505009817</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
         <v>207.9625118881446</v>
@@ -4119,10 +4121,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>229.9609751381512</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>229.9609751381512</v>
+        <v>179.957083386686</v>
       </c>
       <c r="X46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4334,19 +4336,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L2" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M2" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N2" t="n">
-        <v>507.3369750248864</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O2" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P2" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
@@ -4361,13 +4363,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U2" t="n">
+        <v>919.8439005526046</v>
+      </c>
+      <c r="V2" t="n">
         <v>715.2483178236314</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>482.9645045527716</v>
-      </c>
-      <c r="W2" t="n">
-        <v>250.6806912819119</v>
       </c>
       <c r="X2" t="n">
         <v>250.6806912819119</v>
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.39687801105209</v>
+        <v>740.5296836281118</v>
       </c>
       <c r="C3" t="n">
-        <v>18.39687801105209</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D3" t="n">
-        <v>18.39687801105209</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E3" t="n">
-        <v>18.39687801105209</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F3" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G3" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H3" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
@@ -4410,22 +4412,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L3" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="N3" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O3" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N3" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="O3" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P3" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q3" t="n">
         <v>919.8439005526046</v>
@@ -4440,19 +4442,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U3" t="n">
-        <v>709.7807572312464</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V3" t="n">
-        <v>709.7807572312464</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W3" t="n">
-        <v>479.6635113645333</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X3" t="n">
-        <v>290.3564337145449</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y3" t="n">
-        <v>111.0422167900522</v>
+        <v>740.5296836281118</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D4" t="n">
-        <v>795.9429111851816</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E4" t="n">
         <v>662.9281132739598</v>
@@ -4495,7 +4497,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M4" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N4" t="n">
         <v>633.8407713642671</v>
@@ -4510,28 +4512,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y4" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>687.5600872817448</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C5" t="n">
-        <v>455.276274010885</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D5" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H5" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I5" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K5" t="n">
-        <v>236.8598043922958</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L5" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="M5" t="n">
         <v>464.5211697790654</v>
-      </c>
-      <c r="M5" t="n">
-        <v>692.182535165835</v>
       </c>
       <c r="N5" t="n">
         <v>692.182535165835</v>
@@ -4598,19 +4600,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U5" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V5" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W5" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X5" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.8439005526046</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>432.2160341084851</v>
+        <v>560.01837283546</v>
       </c>
       <c r="C6" t="n">
-        <v>432.2160341084851</v>
+        <v>409.3641423955522</v>
       </c>
       <c r="D6" t="n">
-        <v>302.1270667299655</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E6" t="n">
-        <v>302.1270667299655</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F6" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G6" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H6" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I6" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L6" t="n">
-        <v>473.7196087845913</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M6" t="n">
-        <v>473.7196087845913</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N6" t="n">
         <v>692.182535165835</v>
@@ -4662,34 +4664,34 @@
         <v>692.182535165835</v>
       </c>
       <c r="P6" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R6" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S6" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T6" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U6" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V6" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W6" t="n">
-        <v>584.0123685494465</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X6" t="n">
-        <v>584.0123685494465</v>
+        <v>730.5368229026162</v>
       </c>
       <c r="Y6" t="n">
-        <v>584.0123685494465</v>
+        <v>711.8147072764214</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C7" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D7" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E7" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F7" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G7" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H7" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I7" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J7" t="n">
         <v>18.39687801105209</v>
@@ -4747,28 +4749,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R7" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S7" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T7" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U7" t="n">
-        <v>593.126827367731</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V7" t="n">
-        <v>593.126827367731</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W7" t="n">
-        <v>593.126827367731</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X7" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y7" t="n">
-        <v>593.126827367731</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C8" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D8" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="E8" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="F8" t="n">
-        <v>18.39687801105209</v>
+        <v>455.276274010885</v>
       </c>
       <c r="G8" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4802,22 +4804,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K8" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L8" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M8" t="n">
-        <v>618.3693816934194</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N8" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O8" t="n">
-        <v>919.8439005526046</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P8" t="n">
         <v>919.8439005526046</v>
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>299.1400758294795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C9" t="n">
-        <v>148.4858453895718</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D9" t="n">
         <v>18.39687801105209</v>
@@ -4881,22 +4883,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L9" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M9" t="n">
-        <v>359.1732256175491</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N9" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O9" t="n">
-        <v>814.4959563910883</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
         <v>919.8439005526046</v>
@@ -4905,28 +4907,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R9" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S9" t="n">
-        <v>850.4602237004653</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T9" t="n">
-        <v>673.4764118993738</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U9" t="n">
-        <v>673.4764118993738</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V9" t="n">
-        <v>450.9364102704409</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W9" t="n">
-        <v>450.9364102704409</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X9" t="n">
-        <v>450.9364102704409</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y9" t="n">
-        <v>450.9364102704409</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="10">
@@ -5015,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C11" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D11" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E11" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G11" t="n">
         <v>18.39687801105209</v>
@@ -5042,16 +5044,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L11" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M11" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N11" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O11" t="n">
         <v>919.8439005526046</v>
@@ -5075,16 +5077,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V11" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W11" t="n">
-        <v>715.2483178236314</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X11" t="n">
-        <v>482.9645045527716</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y11" t="n">
-        <v>250.6806912819119</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K12" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L12" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M12" t="n">
+        <v>18.39687801105209</v>
+      </c>
+      <c r="N12" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O12" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N12" t="n">
-        <v>464.5211697790654</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="P12" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
@@ -5148,19 +5150,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T12" t="n">
-        <v>742.8600887515131</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U12" t="n">
-        <v>532.7969454301549</v>
+        <v>839.6754200811793</v>
       </c>
       <c r="V12" t="n">
-        <v>310.256943801222</v>
+        <v>617.1354184522463</v>
       </c>
       <c r="W12" t="n">
-        <v>80.1396979345088</v>
+        <v>387.0181725855332</v>
       </c>
       <c r="X12" t="n">
-        <v>80.1396979345088</v>
+        <v>197.7110949355448</v>
       </c>
       <c r="Y12" t="n">
         <v>18.39687801105209</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D13" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E13" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F13" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G13" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H13" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I13" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J13" t="n">
         <v>18.39687801105209</v>
@@ -5221,28 +5223,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R13" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S13" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T13" t="n">
-        <v>919.8439005526046</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U13" t="n">
-        <v>919.8439005526046</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="W13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y13" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="D14" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E14" t="n">
-        <v>455.276274010885</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F14" t="n">
-        <v>222.9924607400252</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G14" t="n">
         <v>18.39687801105209</v>
@@ -5279,16 +5281,16 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K14" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L14" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M14" t="n">
-        <v>701.380974171361</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N14" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O14" t="n">
         <v>919.8439005526046</v>
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>98.56535848247745</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C15" t="n">
-        <v>98.56535848247745</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D15" t="n">
-        <v>98.56535848247745</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E15" t="n">
         <v>18.39687801105209</v>
@@ -5355,25 +5357,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J15" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K15" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L15" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M15" t="n">
-        <v>586.8345910043187</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N15" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="O15" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="P15" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O15" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P15" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q15" t="n">
         <v>919.8439005526046</v>
@@ -5388,19 +5390,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U15" t="n">
-        <v>919.8439005526046</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V15" t="n">
-        <v>697.3038989236717</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W15" t="n">
-        <v>467.1866530569586</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X15" t="n">
-        <v>277.8795754069702</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y15" t="n">
-        <v>98.56535848247745</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.8695735478723</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="C16" t="n">
-        <v>181.8695735478723</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="D16" t="n">
-        <v>181.8695735478723</v>
+        <v>818.4869254147573</v>
       </c>
       <c r="E16" t="n">
-        <v>181.8695735478723</v>
+        <v>662.9281132739598</v>
       </c>
       <c r="F16" t="n">
-        <v>181.8695735478723</v>
+        <v>505.6021784869328</v>
       </c>
       <c r="G16" t="n">
-        <v>181.8695735478723</v>
+        <v>337.3481245863783</v>
       </c>
       <c r="H16" t="n">
         <v>181.8695735478723</v>
@@ -5458,28 +5460,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R16" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S16" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T16" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U16" t="n">
-        <v>181.8695735478723</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V16" t="n">
-        <v>181.8695735478723</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W16" t="n">
-        <v>181.8695735478723</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X16" t="n">
-        <v>181.8695735478723</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y16" t="n">
-        <v>181.8695735478723</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.39687801105209</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I17" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0466509198802</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>390.7080163066498</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L17" t="n">
-        <v>618.3693816934194</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M17" t="n">
-        <v>618.3693816934194</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N17" t="n">
-        <v>618.3693816934194</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O17" t="n">
-        <v>692.182535165835</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S17" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T17" t="n">
-        <v>715.2483178236314</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U17" t="n">
-        <v>715.2483178236314</v>
+        <v>2340.032375784546</v>
       </c>
       <c r="V17" t="n">
-        <v>482.9645045527716</v>
+        <v>1997.925566488064</v>
       </c>
       <c r="W17" t="n">
-        <v>250.6806912819119</v>
+        <v>1626.926531456352</v>
       </c>
       <c r="X17" t="n">
-        <v>18.39687801105209</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.39687801105209</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>98.56535848247745</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C18" t="n">
-        <v>98.56535848247745</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D18" t="n">
-        <v>98.56535848247745</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E18" t="n">
-        <v>18.39687801105209</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F18" t="n">
-        <v>18.39687801105209</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G18" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H18" t="n">
-        <v>18.39687801105209</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I18" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J18" t="n">
-        <v>18.39687801105209</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K18" t="n">
-        <v>246.0582433978217</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L18" t="n">
-        <v>473.7196087845913</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M18" t="n">
-        <v>473.7196087845913</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="N18" t="n">
-        <v>473.7196087845913</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O18" t="n">
-        <v>692.182535165835</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P18" t="n">
-        <v>919.8439005526046</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q18" t="n">
-        <v>919.8439005526046</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R18" t="n">
-        <v>919.8439005526046</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S18" t="n">
-        <v>919.8439005526046</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T18" t="n">
-        <v>919.8439005526046</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U18" t="n">
-        <v>919.8439005526046</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V18" t="n">
-        <v>697.3038989236717</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>467.1866530569586</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X18" t="n">
-        <v>277.8795754069702</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>98.56535848247745</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J19" t="n">
-        <v>18.39687801105209</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K19" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L19" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M19" t="n">
-        <v>450.6511373330578</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N19" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O19" t="n">
-        <v>796.5455384059751</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P19" t="n">
-        <v>916.4217041825536</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q19" t="n">
-        <v>919.8439005526046</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R19" t="n">
-        <v>870.9886070615237</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>668.172523244073</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T19" t="n">
-        <v>668.172523244073</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U19" t="n">
-        <v>668.172523244073</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V19" t="n">
-        <v>435.8887099732132</v>
+        <v>447.0615956321544</v>
       </c>
       <c r="W19" t="n">
-        <v>203.6048967023534</v>
+        <v>163.7311935633321</v>
       </c>
       <c r="X19" t="n">
-        <v>203.6048967023534</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y19" t="n">
-        <v>203.6048967023534</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1485.900427359799</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="C20" t="n">
-        <v>1485.900427359799</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="D20" t="n">
-        <v>1100.459298576466</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E20" t="n">
-        <v>697.8757736930108</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F20" t="n">
-        <v>280.9813352229886</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G20" t="n">
-        <v>280.9813352229886</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H20" t="n">
         <v>47.31297010154361</v>
@@ -5750,22 +5752,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J20" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K20" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L20" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1086.634161864653</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N20" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O20" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P20" t="n">
         <v>2365.64850507718</v>
@@ -5780,22 +5782,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T20" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U20" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V20" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W20" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X20" t="n">
-        <v>1886.395173071196</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y20" t="n">
-        <v>1886.395173071196</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="K21" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L21" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M21" t="n">
-        <v>1436.116207068686</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N21" t="n">
-        <v>1849.128222486199</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O21" t="n">
-        <v>2365.64850507718</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P21" t="n">
         <v>2365.64850507718</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1634.406600469638</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C22" t="n">
-        <v>1464.201482535628</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J22" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K22" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L22" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M22" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N22" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O22" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P22" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R22" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S22" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>2162.832421259729</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U22" t="n">
-        <v>1877.39362950163</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V22" t="n">
-        <v>1634.406600469638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W22" t="n">
-        <v>1634.406600469638</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X22" t="n">
-        <v>1634.406600469638</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y22" t="n">
-        <v>1634.406600469638</v>
+        <v>558.3592198243409</v>
       </c>
     </row>
     <row r="23">
@@ -5966,10 +5968,10 @@
         <v>1179.210445219441</v>
       </c>
       <c r="C23" t="n">
-        <v>1179.210445219441</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="D23" t="n">
-        <v>1179.210445219441</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E23" t="n">
         <v>877.3701640835627</v>
@@ -6042,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C24" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D24" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E24" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F24" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G24" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H24" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L24" t="n">
-        <v>530.8790559998569</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M24" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O24" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q24" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R24" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S24" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T24" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U24" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V24" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W24" t="n">
         <v>1367.096582257017</v>
@@ -6111,7 +6113,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y24" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.31297010154361</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="C25" t="n">
-        <v>47.31297010154361</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="D25" t="n">
-        <v>47.31297010154361</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="E25" t="n">
-        <v>47.31297010154361</v>
+        <v>372.8929587891251</v>
       </c>
       <c r="F25" t="n">
-        <v>47.31297010154361</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G25" t="n">
         <v>47.31297010154361</v>
@@ -6178,19 +6180,19 @@
         <v>745.9439088256454</v>
       </c>
       <c r="U25" t="n">
-        <v>460.5051170675463</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V25" t="n">
-        <v>460.5051170675463</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="W25" t="n">
-        <v>460.5051170675463</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="X25" t="n">
-        <v>455.6330499762015</v>
+        <v>479.9645636464696</v>
       </c>
       <c r="Y25" t="n">
-        <v>232.5209887928449</v>
+        <v>479.9645636464696</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>770.2184964732505</v>
+        <v>985.2055534585422</v>
       </c>
       <c r="C26" t="n">
-        <v>770.2184964732505</v>
+        <v>985.2055534585422</v>
       </c>
       <c r="D26" t="n">
-        <v>770.2184964732505</v>
+        <v>985.2055534585422</v>
       </c>
       <c r="E26" t="n">
-        <v>770.2184964732505</v>
+        <v>985.2055534585422</v>
       </c>
       <c r="F26" t="n">
-        <v>770.2184964732505</v>
+        <v>568.31111498852</v>
       </c>
       <c r="G26" t="n">
-        <v>357.0557409612537</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H26" t="n">
         <v>47.31297010154361</v>
@@ -6224,52 +6226,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K26" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842802</v>
       </c>
       <c r="L26" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028091</v>
       </c>
       <c r="M26" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N26" t="n">
-        <v>2118.077574438405</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O26" t="n">
-        <v>2118.077574438405</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P26" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q26" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R26" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S26" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U26" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V26" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="W26" t="n">
-        <v>1956.65655633099</v>
+        <v>1771.148867604884</v>
       </c>
       <c r="X26" t="n">
-        <v>1567.203951264046</v>
+        <v>1381.696262537941</v>
       </c>
       <c r="Y26" t="n">
-        <v>1170.713242184647</v>
+        <v>985.2055534585422</v>
       </c>
     </row>
     <row r="27">
@@ -6309,16 +6311,16 @@
         <v>367.0521161637701</v>
       </c>
       <c r="L27" t="n">
-        <v>367.0521161637701</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M27" t="n">
-        <v>952.5501211703722</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N27" t="n">
-        <v>1209.141762214911</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P27" t="n">
         <v>2131.28341352229</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>306.3595905514212</v>
+        <v>1632.455536436182</v>
       </c>
       <c r="C28" t="n">
-        <v>136.1544726174104</v>
+        <v>1632.455536436182</v>
       </c>
       <c r="D28" t="n">
-        <v>47.31297010154361</v>
+        <v>1632.455536436182</v>
       </c>
       <c r="E28" t="n">
-        <v>47.31297010154361</v>
+        <v>1632.455536436182</v>
       </c>
       <c r="F28" t="n">
-        <v>47.31297010154361</v>
+        <v>1632.455536436182</v>
       </c>
       <c r="G28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="H28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="I28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="J28" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K28" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L28" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M28" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N28" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O28" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P28" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q28" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R28" t="n">
-        <v>948.7599926430961</v>
+        <v>2241.747515709757</v>
       </c>
       <c r="S28" t="n">
-        <v>948.7599926430961</v>
+        <v>2038.931431892307</v>
       </c>
       <c r="T28" t="n">
-        <v>948.7599926430961</v>
+        <v>1817.663555127483</v>
       </c>
       <c r="U28" t="n">
-        <v>948.7599926430961</v>
+        <v>1817.663555127483</v>
       </c>
       <c r="V28" t="n">
-        <v>948.7599926430961</v>
+        <v>1817.663555127483</v>
       </c>
       <c r="W28" t="n">
-        <v>948.7599926430961</v>
+        <v>1817.663555127483</v>
       </c>
       <c r="X28" t="n">
-        <v>714.6796704260792</v>
+        <v>1817.663555127483</v>
       </c>
       <c r="Y28" t="n">
-        <v>491.5676092427225</v>
+        <v>1817.663555127483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>943.8527383544772</v>
+        <v>1579.705190930838</v>
       </c>
       <c r="C29" t="n">
-        <v>943.8527383544772</v>
+        <v>1579.705190930838</v>
       </c>
       <c r="D29" t="n">
-        <v>558.4116095711449</v>
+        <v>1194.264062147506</v>
       </c>
       <c r="E29" t="n">
-        <v>509.7331374425881</v>
+        <v>791.6805372640504</v>
       </c>
       <c r="F29" t="n">
-        <v>509.7331374425881</v>
+        <v>374.7860987940281</v>
       </c>
       <c r="G29" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H29" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K29" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L29" t="n">
-        <v>318.7636682303387</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M29" t="n">
-        <v>864.7645682749193</v>
+        <v>1086.634161864653</v>
       </c>
       <c r="N29" t="n">
-        <v>1392.575851912381</v>
+        <v>1614.445445502115</v>
       </c>
       <c r="O29" t="n">
-        <v>1832.61545280471</v>
+        <v>2054.485046394444</v>
       </c>
       <c r="P29" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q29" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T29" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U29" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V29" t="n">
-        <v>1729.796052500819</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W29" t="n">
-        <v>1729.796052500819</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X29" t="n">
-        <v>1340.343447433876</v>
+        <v>1976.195900010237</v>
       </c>
       <c r="Y29" t="n">
-        <v>943.8527383544772</v>
+        <v>1579.705190930838</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K30" t="n">
-        <v>47.31297010154361</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L30" t="n">
-        <v>530.8790559998569</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M30" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O30" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P30" t="n">
         <v>2365.64850507718</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
       <c r="C31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
       <c r="D31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
       <c r="E31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
       <c r="F31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
       <c r="G31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
       <c r="H31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
       <c r="I31" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J31" t="n">
         <v>47.31297010154361</v>
@@ -6646,25 +6648,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S31" t="n">
-        <v>834.4501588705843</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T31" t="n">
-        <v>598.7311070388184</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>313.2923152807194</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V31" t="n">
-        <v>47.31297010154361</v>
+        <v>682.7806474639203</v>
       </c>
       <c r="W31" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="X31" t="n">
-        <v>47.31297010154361</v>
+        <v>399.450245395098</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.31297010154361</v>
+        <v>176.3381842117413</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>689.0436508992411</v>
+        <v>210.3518713258459</v>
       </c>
       <c r="C32" t="n">
-        <v>295.8681494021717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D32" t="n">
-        <v>295.8681494021717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E32" t="n">
-        <v>295.8681494021717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F32" t="n">
-        <v>295.8681494021717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G32" t="n">
         <v>47.31297010154361</v>
@@ -6698,25 +6700,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K32" t="n">
-        <v>550.9450990378335</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L32" t="n">
-        <v>1044.265390756362</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M32" t="n">
-        <v>1304.804169167248</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N32" t="n">
-        <v>1832.61545280471</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O32" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P32" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
@@ -6725,25 +6727,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S32" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T32" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U32" t="n">
-        <v>2199.134950018231</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V32" t="n">
-        <v>1857.028140721749</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W32" t="n">
-        <v>1486.029105690037</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X32" t="n">
-        <v>1486.029105690037</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y32" t="n">
-        <v>1089.538396610638</v>
+        <v>610.8466170372428</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>96.70022408963275</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154434</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J33" t="n">
         <v>47.31297010154361</v>
@@ -6786,13 +6788,13 @@
         <v>530.8790559998569</v>
       </c>
       <c r="M33" t="n">
-        <v>1116.377061006459</v>
+        <v>858.0088487631995</v>
       </c>
       <c r="N33" t="n">
-        <v>1701.875066013061</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O33" t="n">
-        <v>2218.395348604042</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P33" t="n">
         <v>2365.64850507718</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1946.360164168862</v>
+        <v>1957.328425202522</v>
       </c>
       <c r="C34" t="n">
-        <v>1776.155046234851</v>
+        <v>1787.123307268512</v>
       </c>
       <c r="D34" t="n">
-        <v>1620.521933137366</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="E34" t="n">
-        <v>1620.521933137366</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.201482535628</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.201482535628</v>
+        <v>1752.774458937056</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.201482535628</v>
+        <v>1597.29590789855</v>
       </c>
       <c r="I34" t="n">
         <v>1464.201482535628</v>
@@ -6898,10 +6900,10 @@
         <v>2365.64850507718</v>
       </c>
       <c r="X34" t="n">
-        <v>2131.568182860163</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y34" t="n">
-        <v>2131.568182860163</v>
+        <v>2142.536443893824</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1742.373856308063</v>
+        <v>1496.942568004252</v>
       </c>
       <c r="C35" t="n">
-        <v>1742.373856308063</v>
+        <v>1496.942568004252</v>
       </c>
       <c r="D35" t="n">
-        <v>1742.373856308063</v>
+        <v>1496.942568004252</v>
       </c>
       <c r="E35" t="n">
-        <v>1339.790331424607</v>
+        <v>1094.359043120797</v>
       </c>
       <c r="F35" t="n">
-        <v>922.895892954585</v>
+        <v>677.4646046507745</v>
       </c>
       <c r="G35" t="n">
-        <v>509.7331374425881</v>
+        <v>264.3018491387776</v>
       </c>
       <c r="H35" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I35" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K35" t="n">
-        <v>358.4764287842802</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L35" t="n">
-        <v>851.7967205028091</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M35" t="n">
-        <v>1397.79762054739</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N35" t="n">
-        <v>1925.608904184852</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O35" t="n">
         <v>2365.64850507718</v>
@@ -6959,28 +6961,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S35" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T35" t="n">
-        <v>2327.655591362702</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U35" t="n">
-        <v>2327.655591362702</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V35" t="n">
-        <v>1985.548782066221</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="W35" t="n">
-        <v>1985.548782066221</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="X35" t="n">
-        <v>1985.548782066221</v>
+        <v>1496.942568004252</v>
       </c>
       <c r="Y35" t="n">
-        <v>1742.373856308063</v>
+        <v>1496.942568004252</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C36" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D36" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E36" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F36" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G36" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H36" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I36" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K36" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L36" t="n">
-        <v>272.5108437565973</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="M36" t="n">
-        <v>858.0088487631995</v>
+        <v>632.8109751081458</v>
       </c>
       <c r="N36" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O36" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P36" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q36" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R36" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S36" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T36" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U36" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V36" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W36" t="n">
         <v>1367.096582257017</v>
@@ -7059,7 +7061,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y36" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.31297010154361</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="C37" t="n">
-        <v>47.31297010154361</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="D37" t="n">
-        <v>47.31297010154361</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="E37" t="n">
-        <v>47.31297010154361</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="F37" t="n">
-        <v>47.31297010154361</v>
+        <v>1951.406783011508</v>
       </c>
       <c r="G37" t="n">
-        <v>47.31297010154361</v>
+        <v>1783.152729110954</v>
       </c>
       <c r="H37" t="n">
-        <v>47.31297010154361</v>
+        <v>1627.674178072448</v>
       </c>
       <c r="I37" t="n">
-        <v>47.31297010154361</v>
+        <v>1494.579752709526</v>
       </c>
       <c r="J37" t="n">
-        <v>47.31297010154361</v>
+        <v>1464.201482535628</v>
       </c>
       <c r="K37" t="n">
-        <v>129.1480112114855</v>
+        <v>1546.036523645569</v>
       </c>
       <c r="L37" t="n">
-        <v>293.2756510852853</v>
+        <v>1710.164163519369</v>
       </c>
       <c r="M37" t="n">
-        <v>479.5672294235493</v>
+        <v>1896.455741857633</v>
       </c>
       <c r="N37" t="n">
-        <v>662.7568634547586</v>
+        <v>2079.645375888842</v>
       </c>
       <c r="O37" t="n">
-        <v>825.4616304964666</v>
+        <v>2242.350142930551</v>
       </c>
       <c r="P37" t="n">
-        <v>945.3377962730451</v>
+        <v>2362.226308707129</v>
       </c>
       <c r="Q37" t="n">
-        <v>948.7599926430961</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R37" t="n">
-        <v>948.7599926430961</v>
+        <v>2342.813040015552</v>
       </c>
       <c r="S37" t="n">
-        <v>745.9439088256454</v>
+        <v>2342.813040015552</v>
       </c>
       <c r="T37" t="n">
-        <v>745.9439088256454</v>
+        <v>2342.813040015552</v>
       </c>
       <c r="U37" t="n">
-        <v>596.6227173495417</v>
+        <v>2342.813040015552</v>
       </c>
       <c r="V37" t="n">
-        <v>330.643372170366</v>
+        <v>2342.813040015552</v>
       </c>
       <c r="W37" t="n">
-        <v>47.31297010154361</v>
+        <v>2342.813040015552</v>
       </c>
       <c r="X37" t="n">
-        <v>47.31297010154361</v>
+        <v>2108.732717798535</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.31297010154361</v>
+        <v>2108.732717798535</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1292.436099230825</v>
+        <v>440.488471598613</v>
       </c>
       <c r="C38" t="n">
-        <v>1292.436099230825</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D38" t="n">
-        <v>906.9949704474925</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E38" t="n">
-        <v>504.411445564037</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G38" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7178,10 +7180,10 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L38" t="n">
-        <v>550.9450990378335</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1096.945999082414</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N38" t="n">
         <v>1577.42141205333</v>
@@ -7196,28 +7198,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S38" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T38" t="n">
-        <v>1937.641433863169</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U38" t="n">
-        <v>1681.888704297768</v>
+        <v>1886.395173071196</v>
       </c>
       <c r="V38" t="n">
-        <v>1681.888704297768</v>
+        <v>1544.288363774714</v>
       </c>
       <c r="W38" t="n">
-        <v>1681.888704297768</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="X38" t="n">
-        <v>1292.436099230825</v>
+        <v>1237.473926389409</v>
       </c>
       <c r="Y38" t="n">
-        <v>1292.436099230825</v>
+        <v>840.9832173100099</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C39" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D39" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E39" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F39" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G39" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H39" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K39" t="n">
-        <v>367.0521161637701</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="L39" t="n">
-        <v>850.6182020620834</v>
+        <v>530.879055999857</v>
       </c>
       <c r="M39" t="n">
-        <v>850.6182020620834</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N39" t="n">
-        <v>1436.116207068686</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O39" t="n">
-        <v>1952.636489659666</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.257858376064</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.64850507718</v>
@@ -7290,13 +7292,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X39" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y39" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1951.406783011508</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="C40" t="n">
-        <v>1951.406783011508</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="D40" t="n">
-        <v>1951.406783011508</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="E40" t="n">
-        <v>1951.406783011508</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F40" t="n">
-        <v>1951.406783011508</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G40" t="n">
-        <v>1783.152729110954</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H40" t="n">
-        <v>1627.674178072448</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I40" t="n">
-        <v>1494.579752709526</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J40" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K40" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L40" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M40" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N40" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O40" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P40" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q40" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S40" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W40" t="n">
-        <v>1951.406783011508</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X40" t="n">
-        <v>1951.406783011508</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y40" t="n">
-        <v>1951.406783011508</v>
+        <v>714.6796704260792</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>855.5572059581905</v>
+        <v>1645.407563735423</v>
       </c>
       <c r="C41" t="n">
-        <v>855.5572059581905</v>
+        <v>1252.232062238354</v>
       </c>
       <c r="D41" t="n">
-        <v>855.5572059581905</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E41" t="n">
-        <v>452.973681074735</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F41" t="n">
         <v>47.31297010154361</v>
@@ -7409,19 +7411,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J41" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L41" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M41" t="n">
-        <v>864.7645682749193</v>
+        <v>1096.945999082414</v>
       </c>
       <c r="N41" t="n">
-        <v>1392.575851912381</v>
+        <v>1624.757282719876</v>
       </c>
       <c r="O41" t="n">
         <v>1832.61545280471</v>
@@ -7445,16 +7447,16 @@
         <v>2365.64850507718</v>
       </c>
       <c r="V41" t="n">
-        <v>2023.541695780699</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W41" t="n">
-        <v>1652.542660748986</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X41" t="n">
-        <v>1652.542660748986</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y41" t="n">
-        <v>1256.051951669587</v>
+        <v>1969.157795997781</v>
       </c>
     </row>
     <row r="42">
@@ -7497,25 +7499,25 @@
         <v>530.8790559998569</v>
       </c>
       <c r="M42" t="n">
-        <v>623.6437572083089</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N42" t="n">
-        <v>1209.141762214911</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.662044805892</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P42" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R42" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S42" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
         <v>2029.816973074021</v>
@@ -7594,19 +7596,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S43" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>510.2248569938795</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U43" t="n">
-        <v>224.7860652357804</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V43" t="n">
-        <v>47.31297010154361</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W43" t="n">
-        <v>47.31297010154361</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X43" t="n">
         <v>47.31297010154361</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>491.8368293385939</v>
+        <v>466.1046008912472</v>
       </c>
       <c r="C44" t="n">
-        <v>491.8368293385939</v>
+        <v>72.9290993941778</v>
       </c>
       <c r="D44" t="n">
-        <v>491.8368293385939</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E44" t="n">
-        <v>259.5530160677341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F44" t="n">
-        <v>259.5530160677341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G44" t="n">
-        <v>259.5530160677341</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H44" t="n">
-        <v>27.26920279687431</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K44" t="n">
-        <v>246.0582433978217</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L44" t="n">
-        <v>473.7196087845914</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M44" t="n">
-        <v>473.7196087845914</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N44" t="n">
-        <v>507.3369750248865</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O44" t="n">
-        <v>734.9983404116562</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P44" t="n">
-        <v>734.9983404116562</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q44" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R44" t="n">
-        <v>881.8509868381267</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>715.3374317791772</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T44" t="n">
-        <v>491.8368293385939</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U44" t="n">
-        <v>491.8368293385939</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V44" t="n">
-        <v>491.8368293385939</v>
+        <v>2023.541695780699</v>
       </c>
       <c r="W44" t="n">
-        <v>491.8368293385939</v>
+        <v>1652.542660748986</v>
       </c>
       <c r="X44" t="n">
-        <v>491.8368293385939</v>
+        <v>1263.090055682043</v>
       </c>
       <c r="Y44" t="n">
-        <v>491.8368293385939</v>
+        <v>866.5993466026441</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>106.6942944104512</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C45" t="n">
-        <v>106.6942944104512</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D45" t="n">
-        <v>106.6942944104512</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E45" t="n">
-        <v>106.6942944104512</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F45" t="n">
-        <v>106.6942944104512</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G45" t="n">
-        <v>106.6942944104512</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H45" t="n">
-        <v>18.3968780110521</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="K45" t="n">
-        <v>18.3968780110521</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L45" t="n">
-        <v>246.0582433978217</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M45" t="n">
-        <v>464.5211697790655</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N45" t="n">
-        <v>692.1825351658351</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="O45" t="n">
-        <v>919.8439005526047</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P45" t="n">
-        <v>919.8439005526047</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q45" t="n">
-        <v>919.8439005526047</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R45" t="n">
-        <v>895.9268574506693</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S45" t="n">
-        <v>895.9268574506693</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T45" t="n">
-        <v>769.4146852274555</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U45" t="n">
-        <v>559.3515419060973</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V45" t="n">
-        <v>336.8115402771643</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W45" t="n">
-        <v>106.6942944104512</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X45" t="n">
-        <v>106.6942944104512</v>
+        <v>1177.789504607029</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.6942944104512</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.3968780110521</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="C46" t="n">
-        <v>18.3968780110521</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="D46" t="n">
-        <v>18.3968780110521</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="E46" t="n">
-        <v>18.3968780110521</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="F46" t="n">
-        <v>18.3968780110521</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="G46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J46" t="n">
-        <v>18.3968780110521</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K46" t="n">
-        <v>100.231919120994</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L46" t="n">
-        <v>264.3595589947938</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M46" t="n">
-        <v>450.6511373330579</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N46" t="n">
-        <v>633.8407713642671</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O46" t="n">
-        <v>796.5455384059752</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P46" t="n">
-        <v>916.4217041825538</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T46" t="n">
-        <v>919.8439005526047</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U46" t="n">
-        <v>919.8439005526047</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V46" t="n">
-        <v>687.5600872817449</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>455.2762740108851</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="X46" t="n">
-        <v>222.9924607400253</v>
+        <v>215.5670240020981</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.3968780110521</v>
+        <v>215.5670240020981</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7984,22 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>379.6860267358784</v>
+        <v>370.3946742050441</v>
       </c>
       <c r="N2" t="n">
-        <v>183.0754269340418</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O2" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8060,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>310.2665579406502</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962058</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8140,7 +8142,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L4" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M4" t="n">
         <v>278.4750710187352</v>
@@ -8213,19 +8215,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>363.7280257865542</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L5" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>379.6860267358784</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O5" t="n">
         <v>379.5248125622476</v>
@@ -8292,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>319.5579104714845</v>
@@ -8301,19 +8303,19 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N6" t="n">
-        <v>306.0417354614835</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M8" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N8" t="n">
-        <v>223.677232219012</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>370.971069848242</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
@@ -8538,7 +8540,7 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>322.3480971874631</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N9" t="n">
         <v>315.3330879923178</v>
@@ -8547,7 +8549,7 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
-        <v>193.4954296289271</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8690,10 +8692,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>143.0584031792374</v>
+        <v>363.7280257865542</v>
       </c>
       <c r="L11" t="n">
-        <v>373.9177923378086</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M11" t="n">
         <v>379.6860267358784</v>
@@ -8702,7 +8704,7 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O11" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P11" t="n">
         <v>150.3014472409252</v>
@@ -8766,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O12" t="n">
-        <v>322.6485340270401</v>
+        <v>313.3571814962058</v>
       </c>
       <c r="P12" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8927,19 +8929,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>383.2091448686429</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M14" t="n">
         <v>379.6860267358784</v>
       </c>
       <c r="N14" t="n">
-        <v>369.7881139451009</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O14" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9003,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>322.3480971874631</v>
+        <v>313.0567446566288</v>
       </c>
       <c r="N15" t="n">
-        <v>191.7841776637791</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>373.0193783173885</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>224.1225783053243</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P17" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q17" t="n">
         <v>144.4986984183922</v>
@@ -9240,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>474.5348277078255</v>
       </c>
       <c r="O18" t="n">
-        <v>313.3571814962057</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L20" t="n">
         <v>651.5514946987026</v>
@@ -9410,13 +9412,13 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>644.8631884980639</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
         <v>144.4986984183922</v>
@@ -9480,22 +9482,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N21" t="n">
-        <v>502.5559668112513</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9723,7 +9725,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536983</v>
       </c>
       <c r="N24" t="n">
         <v>676.7842391234617</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>235.8239269133925</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011935</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9887,13 +9889,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>213.6604073397399</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9957,19 +9959,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>344.5555886567312</v>
+        <v>265.8235510992406</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L29" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M29" t="n">
         <v>701.2411122488187</v>
@@ -10127,10 +10129,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P29" t="n">
-        <v>502.0059847475129</v>
+        <v>464.6079711628815</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10191,13 +10193,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>683.7992483186069</v>
+        <v>588.303013563887</v>
       </c>
       <c r="N30" t="n">
         <v>676.7842391234617</v>
@@ -10206,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10355,19 +10357,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M32" t="n">
-        <v>412.8955348410459</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>149.5638374240964</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P32" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10434,7 +10436,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>683.7992483186069</v>
+        <v>422.8212561536984</v>
       </c>
       <c r="N33" t="n">
         <v>676.7842391234617</v>
@@ -10443,7 +10445,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10598,7 +10600,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P35" t="n">
         <v>150.3014472409252</v>
@@ -10662,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>203.2753887107832</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N36" t="n">
-        <v>676.7842391234617</v>
+        <v>667.5244230630204</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10826,13 +10828,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>688.2664872512298</v>
       </c>
       <c r="N38" t="n">
-        <v>634.4471913084061</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O38" t="n">
         <v>594.0482827698827</v>
@@ -10902,13 +10904,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N39" t="n">
         <v>676.7842391234617</v>
@@ -10917,10 +10919,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q39" t="n">
-        <v>98.45345285401153</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>427.440794103012</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M41" t="n">
         <v>701.2411122488187</v>
@@ -11072,7 +11074,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>594.0482827698827</v>
+        <v>359.5215849845346</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
@@ -11145,7 +11147,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>186.0888404416877</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N42" t="n">
         <v>676.7842391234617</v>
@@ -11154,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11297,25 +11299,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K44" t="n">
-        <v>373.0193783173885</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
-        <v>383.2091448686429</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N44" t="n">
-        <v>183.0754269340418</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>379.5248125622476</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,25 +11378,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>313.0567446566288</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N45" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>322.6485340270401</v>
+        <v>385.1581020577846</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22601,16 +22603,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>50.64557536806387</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>108.7247660653656</v>
+        <v>136.1361143018333</v>
       </c>
       <c r="W2" t="n">
         <v>137.3280695432443</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y2" t="n">
         <v>162.5648268504537</v>
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.55948570534164</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>76.46084574774152</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22680,16 +22682,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22708,10 +22710,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E4" t="n">
-        <v>22.31857408727987</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -22784,13 +22786,13 @@
         <v>166.5288231161317</v>
       </c>
       <c r="C5" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>151.6257423573478</v>
+        <v>179.0370905938155</v>
       </c>
       <c r="E5" t="n">
-        <v>332.9618084713973</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -22802,7 +22804,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -22850,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22865,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>97.46164465644206</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -22926,10 +22928,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>158.9861802853149</v>
       </c>
     </row>
     <row r="7">
@@ -22951,19 +22953,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>69.10327304716648</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>80.03477693883457</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193.9401713525994</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>168.5967144964697</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>118.2925930274908</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
         <v>135.0820259802211</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S9" t="n">
-        <v>88.569402916428</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>177.5210747552478</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="10">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -23264,13 +23266,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>196.0080627329374</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23315,16 +23317,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>136.1361143018333</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23388,10 +23390,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23400,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>116.3956830310257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>154.2588521405743</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23498,7 +23500,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>151.6257423573478</v>
+        <v>179.0370905938154</v>
       </c>
       <c r="E14" t="n">
         <v>168.5967144964697</v>
@@ -23507,7 +23509,7 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G14" t="n">
-        <v>206.4815010551934</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H14" t="n">
         <v>320.8422199291742</v>
@@ -23580,7 +23582,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>55.71523031351005</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
         <v>123.1874880556995</v>
@@ -23628,7 +23630,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="16">
@@ -23656,19 +23658,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>105.4006976970091</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -23783,22 +23785,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>18.71596951449399</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>227.8352342700393</v>
       </c>
       <c r="V17" t="n">
-        <v>108.7247660653656</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>137.3280695432443</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>155.5971038781226</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>55.71523031351005</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>74.29523891757867</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>33.35857658923285</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>50.53612290998299</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>116.4854777676762</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>35.0199522230015</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>89.5105384589437</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24020,10 +24022,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24175,25 +24177,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>22.7623929857119</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>66.12369447580224</v>
       </c>
     </row>
     <row r="23">
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>90.42186815757896</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>99.73581131010116</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24370,13 +24372,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>48.00233521061847</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24418,19 +24420,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>226.9161725744153</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -24452,13 +24454,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>214.0851844479445</v>
       </c>
       <c r="H26" t="n">
-        <v>14.19687677806132</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -24488,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>66.12369447580227</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24613,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>14.3066633162729</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -24664,10 +24666,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3660022273497</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>84.83273055131718</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24734,10 +24736,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24856,10 +24858,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>34.10300661235622</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>87.62118754448949</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>227.8352342700394</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -24929,7 +24931,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>162.9615004492551</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -24965,13 +24967,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>120.0714221183691</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9954293434357169</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25138,10 +25140,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25169,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>106.0232296823125</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>151.7826254880287</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25321,19 +25323,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>100.0548690627372</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>134.7564242791755</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>281.0402233066278</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>63.54275166994313</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,10 +25557,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>131.3961136083778</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>146.7124589214576</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
@@ -25612,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>75.97706831454809</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>11.12139022186255</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
@@ -25685,10 +25687,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -25834,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>87.62118754448957</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>356.2267494957911</v>
       </c>
       <c r="E44" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -25880,10 +25882,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>90.88124479102305</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>128.1701442004958</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>49.96692318209892</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>33.35857658923283</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>50.53612290998296</v>
+        <v>100.5400146614481</v>
       </c>
       <c r="X46" t="n">
-        <v>1.778543856695535</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.33131366983957</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421078.1149834107</v>
+        <v>421078.1149834106</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421078.1149834106</v>
+        <v>678036.4069273432</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>678036.4069273428</v>
+        <v>678036.4069273426</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678036.4069273429</v>
+        <v>678036.4069273428</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678036.4069273426</v>
+        <v>678036.4069273428</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678036.4069273431</v>
+        <v>678036.4069273429</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>678036.4069273428</v>
+        <v>678036.4069273429</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678036.4069273429</v>
+        <v>678036.4069273425</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678036.4069273431</v>
+        <v>678036.4069273429</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421078.1149834107</v>
+        <v>678036.4069273431</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91190.60188992738</v>
+        <v>91190.60188992735</v>
       </c>
       <c r="C2" t="n">
+        <v>91190.60188992739</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91190.60188992741</v>
+      </c>
+      <c r="E2" t="n">
+        <v>91190.60188992739</v>
+      </c>
+      <c r="F2" t="n">
         <v>91190.60188992736</v>
       </c>
-      <c r="D2" t="n">
-        <v>91190.60188992739</v>
-      </c>
-      <c r="E2" t="n">
-        <v>91190.60188992736</v>
-      </c>
-      <c r="F2" t="n">
-        <v>91190.60188992739</v>
-      </c>
       <c r="G2" t="n">
-        <v>91190.60188992739</v>
+        <v>146808.4351127587</v>
       </c>
       <c r="H2" t="n">
         <v>146808.4351127587</v>
@@ -26335,7 +26337,7 @@
         <v>146808.4351127587</v>
       </c>
       <c r="J2" t="n">
-        <v>146808.4351127587</v>
+        <v>146808.4351127586</v>
       </c>
       <c r="K2" t="n">
         <v>146808.4351127587</v>
@@ -26353,7 +26355,7 @@
         <v>146808.4351127587</v>
       </c>
       <c r="P2" t="n">
-        <v>91190.60188992741</v>
+        <v>146808.4351127586</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>99068.33875777958</v>
       </c>
       <c r="H3" t="n">
-        <v>97522.77363554281</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>86983.58097086092</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>21441.81001251515</v>
       </c>
       <c r="G4" t="n">
-        <v>21441.81001251515</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="H4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="I4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="J4" t="n">
+        <v>34799.20444337102</v>
+      </c>
+      <c r="K4" t="n">
+        <v>34799.20444337102</v>
+      </c>
+      <c r="L4" t="n">
+        <v>34799.20444337103</v>
+      </c>
+      <c r="M4" t="n">
+        <v>34799.20444337102</v>
+      </c>
+      <c r="N4" t="n">
+        <v>34799.20444337103</v>
+      </c>
+      <c r="O4" t="n">
         <v>34799.20444337101</v>
       </c>
-      <c r="K4" t="n">
-        <v>34799.20444337101</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>34799.20444337102</v>
-      </c>
-      <c r="M4" t="n">
-        <v>34799.20444337101</v>
-      </c>
-      <c r="N4" t="n">
-        <v>34799.20444337101</v>
-      </c>
-      <c r="O4" t="n">
-        <v>34799.20444337102</v>
-      </c>
-      <c r="P4" t="n">
-        <v>21441.81001251515</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="G5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="H5" t="n">
         <v>35957.85727717314</v>
@@ -26509,7 +26511,7 @@
         <v>35957.85727717314</v>
       </c>
       <c r="P5" t="n">
-        <v>13981.62728839959</v>
+        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54925.64728220999</v>
+        <v>-54925.64728221</v>
       </c>
       <c r="C6" t="n">
-        <v>22139.56458901262</v>
+        <v>22139.56458901265</v>
       </c>
       <c r="D6" t="n">
-        <v>22139.56458901265</v>
+        <v>22139.56458901266</v>
       </c>
       <c r="E6" t="n">
+        <v>55767.16458901265</v>
+      </c>
+      <c r="F6" t="n">
         <v>55767.16458901262</v>
       </c>
-      <c r="F6" t="n">
-        <v>55767.16458901265</v>
-      </c>
       <c r="G6" t="n">
-        <v>55767.16458901265</v>
+        <v>-23016.96536556508</v>
       </c>
       <c r="H6" t="n">
-        <v>-21471.40024332831</v>
+        <v>76051.3733922145</v>
       </c>
       <c r="I6" t="n">
+        <v>76051.37339221453</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15883.46401316804</v>
+      </c>
+      <c r="K6" t="n">
+        <v>76051.37339221453</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76051.37339221449</v>
+      </c>
+      <c r="M6" t="n">
         <v>76051.3733922145</v>
       </c>
-      <c r="J6" t="n">
-        <v>15883.46401316809</v>
-      </c>
-      <c r="K6" t="n">
-        <v>76051.37339221456</v>
-      </c>
-      <c r="L6" t="n">
-        <v>76051.3733922145</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76051.37339221453</v>
-      </c>
       <c r="N6" t="n">
-        <v>76051.3733922145</v>
+        <v>76051.37339221449</v>
       </c>
       <c r="O6" t="n">
-        <v>76051.3733922145</v>
+        <v>-10932.20757864641</v>
       </c>
       <c r="P6" t="n">
-        <v>55767.16458901266</v>
+        <v>76051.37339221447</v>
       </c>
     </row>
   </sheetData>
@@ -26802,7 +26804,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="H4" t="n">
         <v>591.4121262692951</v>
@@ -26829,7 +26831,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="H4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>361.4511511311439</v>
       </c>
       <c r="P4" t="n">
-        <v>361.4511511311439</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="N2" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M2" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="N2" t="n">
-        <v>33.95693559625767</v>
       </c>
       <c r="O2" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34862,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L4" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M4" t="n">
         <v>188.1733114527919</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="N5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="M5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>229.9609751381512</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>229.9609751381512</v>
@@ -35021,19 +35023,19 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N6" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N8" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N9" t="n">
         <v>229.9609751381512</v>
@@ -35267,7 +35269,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P9" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="L11" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M11" t="n">
         <v>229.9609751381512</v>
@@ -35422,7 +35424,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M12" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
       <c r="O12" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="P12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M14" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="N14" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="N15" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>229.9609751381512</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>74.55874088122788</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P17" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="O18" t="n">
-        <v>220.6696226073169</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L20" t="n">
         <v>498.303324968211</v>
@@ -36130,13 +36132,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>495.7446971602798</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
+        <v>330.4341341043864</v>
+      </c>
+      <c r="N21" t="n">
         <v>591.4121262692951</v>
-      </c>
-      <c r="N21" t="n">
-        <v>417.1838539570846</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043864</v>
       </c>
       <c r="N24" t="n">
         <v>591.4121262692951</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>148.7405620940779</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219562</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36607,13 +36609,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>63.35896009881473</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>259.1834758025645</v>
+        <v>180.451438245074</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36847,10 +36849,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>314.3065239219563</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>591.4121262692951</v>
+        <v>495.9158915145751</v>
       </c>
       <c r="N30" t="n">
         <v>591.4121262692951</v>
@@ -36926,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,19 +37077,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>263.1704832433186</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>591.4121262692951</v>
+        <v>330.4341341043865</v>
       </c>
       <c r="N33" t="n">
         <v>591.4121262692951</v>
@@ -37163,7 +37165,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37318,7 +37320,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>113.215041853865</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N36" t="n">
-        <v>591.4121262692951</v>
+        <v>582.1523102088538</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,13 +37548,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>538.5414356535026</v>
       </c>
       <c r="N38" t="n">
-        <v>485.328699970622</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N39" t="n">
         <v>591.4121262692951</v>
@@ -37637,10 +37639,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.465299698097541</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L41" t="n">
-        <v>274.1926243725203</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>551.5160606510915</v>
@@ -37792,7 +37794,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>444.4844453457863</v>
+        <v>209.9577475604382</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37865,7 +37867,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>93.7017183923758</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N42" t="n">
         <v>591.4121262692951</v>
@@ -37874,10 +37876,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,25 +38019,25 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>229.9609751381512</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>229.9609751381512</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>33.95693559625767</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>229.9609751381512</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>229.9609751381512</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>220.6696226073169</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>229.9609751381512</v>
+        <v>292.4705431688957</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>284848.8198528511</v>
+        <v>277146.4624010097</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6037395.839817926</v>
+        <v>6037395.839817922</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6650528.355242323</v>
+        <v>6650528.355242322</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>72.68684238776719</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>135.5065332832368</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>32.06738239138028</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864689</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -834,13 +834,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.08822281599025586</v>
       </c>
       <c r="U5" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.53489446993292</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="7">
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>93.60474926612928</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,61 +1135,61 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="U8" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="F8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="G8" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H8" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>140.4518824417235</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V9" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
@@ -1280,7 +1280,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y9" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,20 +1338,20 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="U10" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="V10" t="n">
-        <v>109.0606995868097</v>
-      </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.11186715957674</v>
       </c>
     </row>
     <row r="11">
@@ -1378,17 +1378,17 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>46.39658611529719</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="G11" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>67.8889561862029</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U12" t="n">
-        <v>79.36679566671111</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>220.3146016126436</v>
@@ -1514,7 +1514,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X12" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>177.5210747552478</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>75.97691627918033</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V13" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,61 +1612,61 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
+        <v>46.39658611529718</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T14" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="G14" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>92.94867414296913</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>48.92535853381431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864689</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.094127272894892</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>25.35996799970812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>338.6857412035168</v>
@@ -1909,7 +1909,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1940,7 +1940,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H18" t="n">
-        <v>87.41444223540508</v>
+        <v>87.4144422354058</v>
       </c>
       <c r="I18" t="n">
         <v>48.89338144820752</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>195.2380095776319</v>
       </c>
       <c r="T19" t="n">
         <v>233.3618613134482</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>115.2540412271705</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>361.4698460312814</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>282.066813061808</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S21" t="n">
         <v>133.5813703291298</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>50.69755599716208</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.7572460957208</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>298.8218783245197</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.5417026807175</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>106.000888808771</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>87.95308749070813</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>247.9951750302739</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>194.9459435089323</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2623,7 +2623,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>23.67787267091717</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.0551979971753</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>211.6928685184853</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>324.1983974055597</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>28.86291212944058</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2970,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>97.66047449693666</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>66.0314987001008</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>161.4085122120593</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3097,7 +3097,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>50.85189863736566</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>34.00535984814132</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>315.3272833321277</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
@@ -3283,7 +3283,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>214.8189902468617</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3435,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.60711041101165</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>128.5631274482085</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.5527884309157</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>303.7462930114523</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>22.60711041101165</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>53.0363847091458</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>320.5127299397348</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3748,16 +3748,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>39.28159878969218</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3872,7 +3872,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
-        <v>175.2139736830814</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
         <v>207.9625118881446</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>157.6926523830316</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>25.35996799970785</v>
+        <v>9.256859766562403</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>179.957083386686</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>66.0314987001008</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.39687801105209</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="C2" t="n">
-        <v>18.39687801105209</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="D2" t="n">
-        <v>18.39687801105209</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="E2" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="F2" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G2" t="n">
         <v>18.39687801105209</v>
@@ -4330,52 +4330,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K2" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L2" t="n">
-        <v>18.39687801105209</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M2" t="n">
-        <v>236.8598043922958</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N2" t="n">
-        <v>464.5211697790654</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O2" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P2" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q2" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U2" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V2" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W2" t="n">
-        <v>482.9645045527716</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X2" t="n">
-        <v>250.6806912819119</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.39687801105209</v>
+        <v>881.8509868381266</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>740.5296836281118</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C3" t="n">
-        <v>667.1086307111752</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D3" t="n">
-        <v>537.0196633326556</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E3" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F3" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G3" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H3" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I3" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J3" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K3" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L3" t="n">
-        <v>18.39687801105209</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M3" t="n">
-        <v>18.39687801105209</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N3" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O3" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P3" t="n">
         <v>692.182535165835</v>
@@ -4436,25 +4436,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S3" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T3" t="n">
-        <v>919.8439005526046</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U3" t="n">
-        <v>919.8439005526046</v>
+        <v>471.0541255066982</v>
       </c>
       <c r="V3" t="n">
-        <v>919.8439005526046</v>
+        <v>248.5141238777652</v>
       </c>
       <c r="W3" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X3" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5296836281118</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C4" t="n">
-        <v>919.8439005526046</v>
+        <v>655.1687919369163</v>
       </c>
       <c r="D4" t="n">
-        <v>818.4869254147573</v>
+        <v>499.5356788394311</v>
       </c>
       <c r="E4" t="n">
-        <v>662.9281132739598</v>
+        <v>343.9768666986336</v>
       </c>
       <c r="F4" t="n">
-        <v>505.6021784869328</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G4" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H4" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I4" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J4" t="n">
         <v>18.39687801105209</v>
@@ -4527,13 +4527,13 @@
         <v>919.8439005526046</v>
       </c>
       <c r="W4" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X4" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y4" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C5" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D5" t="n">
         <v>18.39687801105209</v>
@@ -4567,22 +4567,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J5" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K5" t="n">
-        <v>390.7080163066498</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L5" t="n">
-        <v>390.7080163066498</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M5" t="n">
-        <v>464.5211697790654</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N5" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="O5" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P5" t="n">
         <v>919.8439005526046</v>
@@ -4591,28 +4591,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R5" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T5" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U5" t="n">
-        <v>687.5600872817448</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V5" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W5" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X5" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y5" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.01837283546</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C6" t="n">
-        <v>409.3641423955522</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D6" t="n">
-        <v>279.2751750170326</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E6" t="n">
-        <v>142.8286841279203</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F6" t="n">
         <v>18.39687801105209</v>
@@ -4646,25 +4646,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J6" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K6" t="n">
-        <v>359.1732256175491</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L6" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M6" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N6" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O6" t="n">
-        <v>692.182535165835</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P6" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q6" t="n">
         <v>919.8439005526046</v>
@@ -4679,19 +4679,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U6" t="n">
-        <v>919.8439005526046</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="V6" t="n">
-        <v>919.8439005526046</v>
+        <v>487.2407556023135</v>
       </c>
       <c r="W6" t="n">
-        <v>919.8439005526046</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X6" t="n">
-        <v>730.5368229026162</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y6" t="n">
-        <v>711.8147072764214</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.39687801105209</v>
+        <v>825.2936487686356</v>
       </c>
       <c r="C7" t="n">
-        <v>18.39687801105209</v>
+        <v>655.0885308346249</v>
       </c>
       <c r="D7" t="n">
-        <v>18.39687801105209</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="E7" t="n">
-        <v>18.39687801105209</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="F7" t="n">
-        <v>18.39687801105209</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="G7" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H7" t="n">
         <v>18.39687801105209</v>
@@ -4758,19 +4758,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U7" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V7" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W7" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="C8" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D8" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E8" t="n">
-        <v>687.5600872817448</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F8" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G8" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H8" t="n">
         <v>18.39687801105209</v>
@@ -4804,25 +4804,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J8" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K8" t="n">
-        <v>18.39687801105209</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L8" t="n">
-        <v>246.0582433978217</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M8" t="n">
-        <v>473.7196087845913</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N8" t="n">
-        <v>473.7196087845913</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O8" t="n">
-        <v>701.380974171361</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P8" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q8" t="n">
         <v>919.8439005526046</v>
@@ -4834,22 +4834,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T8" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y8" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.39687801105209</v>
+        <v>290.3564337145449</v>
       </c>
       <c r="C9" t="n">
-        <v>18.39687801105209</v>
+        <v>148.4858453895718</v>
       </c>
       <c r="D9" t="n">
         <v>18.39687801105209</v>
@@ -4901,7 +4901,7 @@
         <v>692.182535165835</v>
       </c>
       <c r="P9" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q9" t="n">
         <v>919.8439005526046</v>
@@ -4919,16 +4919,16 @@
         <v>709.7807572312464</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2407556023135</v>
+        <v>709.7807572312464</v>
       </c>
       <c r="W9" t="n">
-        <v>257.1235097356004</v>
+        <v>479.6635113645333</v>
       </c>
       <c r="X9" t="n">
-        <v>67.81643208561201</v>
+        <v>290.3564337145449</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.39687801105209</v>
+        <v>290.3564337145449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.39687801105209</v>
+        <v>485.0673542878408</v>
       </c>
       <c r="C10" t="n">
-        <v>18.39687801105209</v>
+        <v>485.0673542878408</v>
       </c>
       <c r="D10" t="n">
-        <v>18.39687801105209</v>
+        <v>329.4342411903556</v>
       </c>
       <c r="E10" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="F10" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G10" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H10" t="n">
         <v>18.39687801105209</v>
@@ -4986,28 +4986,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R10" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S10" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T10" t="n">
-        <v>360.8430140968712</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U10" t="n">
-        <v>128.5592008260114</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V10" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W10" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X10" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.39687801105209</v>
+        <v>670.275372979142</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C11" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D11" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="E11" t="n">
-        <v>482.9645045527716</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="F11" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="G11" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="H11" t="n">
         <v>18.39687801105209</v>
@@ -5044,22 +5044,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K11" t="n">
-        <v>236.8598043922958</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L11" t="n">
-        <v>464.5211697790654</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M11" t="n">
-        <v>692.182535165835</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N11" t="n">
-        <v>919.8439005526046</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P11" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q11" t="n">
         <v>919.8439005526046</v>
@@ -5068,25 +5068,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S11" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T11" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U11" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V11" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W11" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X11" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y11" t="n">
-        <v>687.5600872817448</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.39687801105209</v>
+        <v>86.97158122943887</v>
       </c>
       <c r="C12" t="n">
         <v>18.39687801105209</v>
@@ -5120,52 +5120,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J12" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K12" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L12" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M12" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N12" t="n">
-        <v>246.0582433978217</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="O12" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P12" t="n">
-        <v>692.182535165835</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="Q12" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R12" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S12" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T12" t="n">
-        <v>919.8439005526046</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="U12" t="n">
-        <v>839.6754200811793</v>
+        <v>718.9430456495777</v>
       </c>
       <c r="V12" t="n">
-        <v>617.1354184522463</v>
+        <v>496.4030440206448</v>
       </c>
       <c r="W12" t="n">
-        <v>387.0181725855332</v>
+        <v>266.2857981539316</v>
       </c>
       <c r="X12" t="n">
-        <v>197.7110949355448</v>
+        <v>266.2857981539316</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.39687801105209</v>
+        <v>86.97158122943887</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="C13" t="n">
-        <v>18.39687801105209</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="D13" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E13" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F13" t="n">
         <v>18.39687801105209</v>
@@ -5226,25 +5226,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S13" t="n">
-        <v>593.126827367731</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T13" t="n">
-        <v>360.8430140968712</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5592008260114</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V13" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="W13" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="X13" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="C14" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="D14" t="n">
-        <v>715.2483178236314</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="E14" t="n">
-        <v>482.9645045527716</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="F14" t="n">
-        <v>250.6806912819119</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="G14" t="n">
-        <v>18.39687801105209</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="H14" t="n">
-        <v>18.39687801105209</v>
+        <v>65.26211651135227</v>
       </c>
       <c r="I14" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K14" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L14" t="n">
-        <v>236.8598043922958</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M14" t="n">
-        <v>464.5211697790654</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N14" t="n">
-        <v>692.182535165835</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P14" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q14" t="n">
         <v>919.8439005526046</v>
@@ -5305,25 +5305,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S14" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T14" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U14" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V14" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W14" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X14" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="Y14" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>18.39687801105209</v>
+        <v>760.996180350538</v>
       </c>
       <c r="C15" t="n">
-        <v>18.39687801105209</v>
+        <v>667.1086307111752</v>
       </c>
       <c r="D15" t="n">
-        <v>18.39687801105209</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E15" t="n">
-        <v>18.39687801105209</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F15" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G15" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H15" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I15" t="n">
         <v>18.39687801105209</v>
@@ -5363,7 +5363,7 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L15" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M15" t="n">
         <v>236.8598043922958</v>
@@ -5381,28 +5381,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R15" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S15" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T15" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U15" t="n">
-        <v>709.7807572312464</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V15" t="n">
-        <v>487.2407556023135</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W15" t="n">
-        <v>257.1235097356004</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X15" t="n">
-        <v>67.81643208561201</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.39687801105209</v>
+        <v>760.996180350538</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D16" t="n">
-        <v>818.4869254147573</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E16" t="n">
-        <v>662.9281132739598</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F16" t="n">
-        <v>505.6021784869328</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G16" t="n">
-        <v>337.3481245863783</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H16" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I16" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J16" t="n">
         <v>18.39687801105209</v>
@@ -5466,22 +5466,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T16" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U16" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V16" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y16" t="n">
-        <v>919.8439005526046</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>440.488471598613</v>
+        <v>828.0448804555765</v>
       </c>
       <c r="C17" t="n">
-        <v>47.31297010154361</v>
+        <v>434.8693789585071</v>
       </c>
       <c r="D17" t="n">
-        <v>47.31297010154361</v>
+        <v>49.42825017517481</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31297010154361</v>
+        <v>49.42825017517481</v>
       </c>
       <c r="F17" t="n">
-        <v>47.31297010154361</v>
+        <v>49.42825017517481</v>
       </c>
       <c r="G17" t="n">
         <v>47.31297010154361</v>
@@ -5518,49 +5518,49 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K17" t="n">
-        <v>406.2953261290054</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L17" t="n">
-        <v>899.6156178475343</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M17" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N17" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q17" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U17" t="n">
-        <v>2340.032375784546</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.925566488064</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W17" t="n">
-        <v>1626.926531456352</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X17" t="n">
-        <v>1237.473926389409</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y17" t="n">
-        <v>840.9832173100099</v>
+        <v>828.0448804555765</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415753</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016675</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231478</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340356</v>
       </c>
       <c r="F18" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171674</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890318</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J18" t="n">
-        <v>160.4279523212711</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K18" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L18" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M18" t="n">
-        <v>1229.492043226187</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N18" t="n">
-        <v>1614.763130931309</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O18" t="n">
-        <v>2131.28341352229</v>
+        <v>2065.751471879394</v>
       </c>
       <c r="P18" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q18" t="n">
         <v>2365.64850507718</v>
@@ -5633,13 +5633,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1367.096582257018</v>
       </c>
       <c r="X18" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.4752876825364</v>
+        <v>998.4752876825366</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>360.1977170293682</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F19" t="n">
         <v>47.31297010154361</v>
@@ -5700,25 +5700,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>751.5498819586194</v>
       </c>
       <c r="T19" t="n">
-        <v>713.0409408113302</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="U19" t="n">
-        <v>713.0409408113302</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="V19" t="n">
-        <v>447.0615956321544</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="W19" t="n">
-        <v>163.7311935633321</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>515.8308301268535</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>515.8308301268535</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1604.036739400527</v>
+        <v>1541.150724783771</v>
       </c>
       <c r="C20" t="n">
-        <v>1604.036739400527</v>
+        <v>1147.975223286701</v>
       </c>
       <c r="D20" t="n">
-        <v>1604.036739400527</v>
+        <v>1147.975223286701</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.453214517072</v>
+        <v>745.3916984032455</v>
       </c>
       <c r="F20" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G20" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H20" t="n">
         <v>47.31297010154361</v>
@@ -5761,43 +5761,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N20" t="n">
-        <v>2118.077574438405</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O20" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P20" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q20" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R20" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S20" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T20" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U20" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V20" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W20" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X20" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="Y20" t="n">
-        <v>1969.157795997781</v>
+        <v>1541.150724783771</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C21" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D21" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E21" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F21" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G21" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H21" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I21" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J21" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K21" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L21" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M21" t="n">
-        <v>858.0088487631995</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N21" t="n">
-        <v>1443.506853769802</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O21" t="n">
-        <v>1960.027136360783</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="P21" t="n">
         <v>2365.64850507718</v>
@@ -5855,19 +5855,19 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R21" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S21" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T21" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U21" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V21" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W21" t="n">
         <v>1367.096582257017</v>
@@ -5876,7 +5876,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.1512011330396</v>
+        <v>255.8485574109566</v>
       </c>
       <c r="C22" t="n">
-        <v>202.9460831990289</v>
+        <v>255.8485574109566</v>
       </c>
       <c r="D22" t="n">
-        <v>47.31297010154361</v>
+        <v>255.8485574109566</v>
       </c>
       <c r="E22" t="n">
-        <v>47.31297010154361</v>
+        <v>255.8485574109566</v>
       </c>
       <c r="F22" t="n">
-        <v>47.31297010154361</v>
+        <v>98.52262262392955</v>
       </c>
       <c r="G22" t="n">
         <v>47.31297010154361</v>
@@ -5940,22 +5940,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="W22" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="X22" t="n">
-        <v>714.6796704260792</v>
+        <v>478.9606185943132</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.3592198243409</v>
+        <v>255.8485574109566</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1179.210445219441</v>
+        <v>1319.386872300849</v>
       </c>
       <c r="C23" t="n">
-        <v>877.3701640835627</v>
+        <v>926.2113708037798</v>
       </c>
       <c r="D23" t="n">
-        <v>877.3701640835627</v>
+        <v>926.2113708037798</v>
       </c>
       <c r="E23" t="n">
-        <v>877.3701640835627</v>
+        <v>926.2113708037798</v>
       </c>
       <c r="F23" t="n">
-        <v>460.4757256135405</v>
+        <v>509.3169323337576</v>
       </c>
       <c r="G23" t="n">
-        <v>47.31297010154361</v>
+        <v>509.3169323337576</v>
       </c>
       <c r="H23" t="n">
-        <v>47.31297010154361</v>
+        <v>185.2338819002482</v>
       </c>
       <c r="I23" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J23" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K23" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L23" t="n">
-        <v>318.7636682303387</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M23" t="n">
         <v>864.7645682749193</v>
@@ -6016,25 +6016,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S23" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T23" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="V23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="W23" t="n">
-        <v>2365.64850507718</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="X23" t="n">
-        <v>1976.195900010237</v>
+        <v>1719.881618012246</v>
       </c>
       <c r="Y23" t="n">
-        <v>1579.705190930838</v>
+        <v>1719.881618012246</v>
       </c>
     </row>
     <row r="24">
@@ -6068,16 +6068,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J24" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K24" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L24" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M24" t="n">
-        <v>858.0088487631995</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N24" t="n">
         <v>1443.506853769802</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>479.9645636464696</v>
+        <v>306.3595905514212</v>
       </c>
       <c r="C25" t="n">
-        <v>479.9645636464696</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="D25" t="n">
-        <v>479.9645636464696</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="E25" t="n">
-        <v>372.8929587891251</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="F25" t="n">
-        <v>215.5670240020981</v>
+        <v>136.1544726174104</v>
       </c>
       <c r="G25" t="n">
         <v>47.31297010154361</v>
@@ -6174,25 +6174,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S25" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T25" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U25" t="n">
-        <v>745.9439088256454</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V25" t="n">
-        <v>479.9645636464696</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W25" t="n">
-        <v>479.9645636464696</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X25" t="n">
-        <v>479.9645636464696</v>
+        <v>714.6796704260792</v>
       </c>
       <c r="Y25" t="n">
-        <v>479.9645636464696</v>
+        <v>491.5676092427225</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>985.2055534585422</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="C26" t="n">
-        <v>985.2055534585422</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="D26" t="n">
-        <v>985.2055534585422</v>
+        <v>621.8961973333095</v>
       </c>
       <c r="E26" t="n">
-        <v>985.2055534585422</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F26" t="n">
-        <v>568.31111498852</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G26" t="n">
         <v>371.396020535053</v>
@@ -6226,19 +6226,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J26" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K26" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L26" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M26" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N26" t="n">
-        <v>1925.608904184852</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O26" t="n">
         <v>2365.64850507718</v>
@@ -6256,22 +6256,22 @@
         <v>2365.64850507718</v>
       </c>
       <c r="T26" t="n">
-        <v>2142.147902636597</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U26" t="n">
-        <v>2142.147902636597</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V26" t="n">
-        <v>2142.147902636597</v>
+        <v>1767.788966215297</v>
       </c>
       <c r="W26" t="n">
-        <v>1771.148867604884</v>
+        <v>1396.789931183585</v>
       </c>
       <c r="X26" t="n">
-        <v>1381.696262537941</v>
+        <v>1007.337326116642</v>
       </c>
       <c r="Y26" t="n">
-        <v>985.2055534585422</v>
+        <v>1007.337326116642</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C27" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D27" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E27" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F27" t="n">
-        <v>305.0574584171674</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H27" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I27" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J27" t="n">
-        <v>47.31297010154361</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K27" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L27" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M27" t="n">
-        <v>1436.116207068686</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N27" t="n">
-        <v>1614.763130931309</v>
+        <v>1849.128222486199</v>
       </c>
       <c r="O27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P27" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q27" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R27" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S27" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T27" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U27" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V27" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W27" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X27" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y27" t="n">
-        <v>998.4752876825366</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1632.455536436182</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C28" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D28" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E28" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F28" t="n">
-        <v>1632.455536436182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J28" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K28" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L28" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M28" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N28" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O28" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P28" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R28" t="n">
-        <v>2241.747515709757</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S28" t="n">
-        <v>2038.931431892307</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T28" t="n">
-        <v>1817.663555127483</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.663555127483</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V28" t="n">
-        <v>1817.663555127483</v>
+        <v>734.9288123213937</v>
       </c>
       <c r="W28" t="n">
-        <v>1817.663555127483</v>
+        <v>451.5984102525713</v>
       </c>
       <c r="X28" t="n">
-        <v>1817.663555127483</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="Y28" t="n">
-        <v>1817.663555127483</v>
+        <v>217.5180880355544</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1579.705190930838</v>
+        <v>895.945390151426</v>
       </c>
       <c r="C29" t="n">
-        <v>1579.705190930838</v>
+        <v>895.945390151426</v>
       </c>
       <c r="D29" t="n">
-        <v>1194.264062147506</v>
+        <v>895.945390151426</v>
       </c>
       <c r="E29" t="n">
-        <v>791.6805372640504</v>
+        <v>493.3618652679705</v>
       </c>
       <c r="F29" t="n">
-        <v>374.7860987940281</v>
+        <v>76.46742679794824</v>
       </c>
       <c r="G29" t="n">
-        <v>47.31297010154361</v>
+        <v>76.46742679794824</v>
       </c>
       <c r="H29" t="n">
-        <v>47.31297010154361</v>
+        <v>76.46742679794824</v>
       </c>
       <c r="I29" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K29" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L29" t="n">
-        <v>540.6332618200724</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M29" t="n">
-        <v>1086.634161864653</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N29" t="n">
-        <v>1614.445445502115</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O29" t="n">
-        <v>2054.485046394444</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P29" t="n">
         <v>2365.64850507718</v>
@@ -6487,28 +6487,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R29" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S29" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T29" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W29" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X29" t="n">
-        <v>1976.195900010237</v>
+        <v>1292.436099230825</v>
       </c>
       <c r="Y29" t="n">
-        <v>1579.705190930838</v>
+        <v>895.945390151426</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J30" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K30" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L30" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M30" t="n">
-        <v>858.0088487631995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N30" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O30" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P30" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q30" t="n">
         <v>2365.64850507718</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I31" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J31" t="n">
         <v>47.31297010154361</v>
@@ -6654,19 +6654,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U31" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V31" t="n">
-        <v>682.7806474639203</v>
+        <v>397.3418557058213</v>
       </c>
       <c r="W31" t="n">
-        <v>399.450245395098</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X31" t="n">
-        <v>399.450245395098</v>
+        <v>114.011453636999</v>
       </c>
       <c r="Y31" t="n">
-        <v>176.3381842117413</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>210.3518713258459</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="C32" t="n">
-        <v>47.31297010154361</v>
+        <v>1173.731587788408</v>
       </c>
       <c r="D32" t="n">
-        <v>47.31297010154361</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="E32" t="n">
-        <v>47.31297010154361</v>
+        <v>788.2904590050753</v>
       </c>
       <c r="F32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G32" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H32" t="n">
         <v>47.31297010154361</v>
@@ -6700,52 +6700,52 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J32" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K32" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L32" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M32" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N32" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P32" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q32" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T32" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U32" t="n">
-        <v>2109.895775511779</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V32" t="n">
-        <v>1767.788966215297</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W32" t="n">
-        <v>1396.789931183585</v>
+        <v>1614.549747034508</v>
       </c>
       <c r="X32" t="n">
-        <v>1007.337326116642</v>
+        <v>1225.097141967565</v>
       </c>
       <c r="Y32" t="n">
-        <v>610.8466170372428</v>
+        <v>1173.731587788408</v>
       </c>
     </row>
     <row r="33">
@@ -6755,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>846.6789532415753</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C33" t="n">
-        <v>696.0247228016675</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D33" t="n">
-        <v>565.9357554231478</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E33" t="n">
-        <v>429.4892645340356</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F33" t="n">
-        <v>305.0574584171674</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9976404890318</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H33" t="n">
-        <v>96.70022408963275</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I33" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J33" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K33" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L33" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M33" t="n">
-        <v>858.0088487631995</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N33" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O33" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P33" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q33" t="n">
         <v>2365.64850507718</v>
@@ -6818,13 +6818,13 @@
         <v>1597.213828123731</v>
       </c>
       <c r="W33" t="n">
-        <v>1367.096582257018</v>
+        <v>1367.096582257017</v>
       </c>
       <c r="X33" t="n">
         <v>1177.789504607029</v>
       </c>
       <c r="Y33" t="n">
-        <v>998.4752876825366</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1957.328425202522</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C34" t="n">
-        <v>1787.123307268512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D34" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E34" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F34" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G34" t="n">
-        <v>1752.774458937056</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H34" t="n">
-        <v>1597.29590789855</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J34" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K34" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L34" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M34" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N34" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O34" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P34" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q34" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R34" t="n">
-        <v>2365.64850507718</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S34" t="n">
-        <v>2365.64850507718</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T34" t="n">
-        <v>2365.64850507718</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U34" t="n">
-        <v>2365.64850507718</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V34" t="n">
-        <v>2365.64850507718</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W34" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X34" t="n">
-        <v>2365.64850507718</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y34" t="n">
-        <v>2142.536443893824</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1496.942568004252</v>
+        <v>1589.058072986822</v>
       </c>
       <c r="C35" t="n">
-        <v>1496.942568004252</v>
+        <v>1195.882571489752</v>
       </c>
       <c r="D35" t="n">
-        <v>1496.942568004252</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="E35" t="n">
-        <v>1094.359043120797</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F35" t="n">
-        <v>677.4646046507745</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G35" t="n">
-        <v>264.3018491387776</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H35" t="n">
         <v>47.31297010154361</v>
@@ -6937,22 +6937,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J35" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K35" t="n">
-        <v>406.2953261290054</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L35" t="n">
-        <v>899.6156178475343</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M35" t="n">
-        <v>1445.616517892115</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N35" t="n">
-        <v>1973.427801529577</v>
+        <v>1759.095218410943</v>
       </c>
       <c r="O35" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134819303272</v>
       </c>
       <c r="P35" t="n">
         <v>2365.64850507718</v>
@@ -6961,28 +6961,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S35" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T35" t="n">
-        <v>2142.147902636597</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U35" t="n">
-        <v>1886.395173071196</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V35" t="n">
-        <v>1886.395173071196</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="W35" t="n">
-        <v>1886.395173071196</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="X35" t="n">
-        <v>1496.942568004252</v>
+        <v>1985.548782066221</v>
       </c>
       <c r="Y35" t="n">
-        <v>1496.942568004252</v>
+        <v>1589.058072986822</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J36" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K36" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L36" t="n">
-        <v>47.31297010154367</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M36" t="n">
-        <v>632.8109751081458</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N36" t="n">
         <v>1209.141762214911</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2108.732717798535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C37" t="n">
-        <v>2108.732717798535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D37" t="n">
-        <v>2108.732717798535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E37" t="n">
-        <v>2108.732717798535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F37" t="n">
-        <v>1951.406783011508</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G37" t="n">
-        <v>1783.152729110954</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H37" t="n">
-        <v>1627.674178072448</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I37" t="n">
-        <v>1494.579752709526</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J37" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K37" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L37" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M37" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N37" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O37" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P37" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q37" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R37" t="n">
-        <v>2342.813040015552</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S37" t="n">
-        <v>2342.813040015552</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T37" t="n">
-        <v>2342.813040015552</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U37" t="n">
-        <v>2342.813040015552</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V37" t="n">
-        <v>2342.813040015552</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W37" t="n">
-        <v>2342.813040015552</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X37" t="n">
-        <v>2108.732717798535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y37" t="n">
-        <v>2108.732717798535</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>440.488471598613</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="C38" t="n">
-        <v>47.31297010154361</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="D38" t="n">
-        <v>47.31297010154361</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="E38" t="n">
-        <v>47.31297010154361</v>
+        <v>1145.605303912771</v>
       </c>
       <c r="F38" t="n">
-        <v>47.31297010154361</v>
+        <v>728.7108654427483</v>
       </c>
       <c r="G38" t="n">
-        <v>47.31297010154361</v>
+        <v>315.5481099307514</v>
       </c>
       <c r="H38" t="n">
         <v>47.31297010154361</v>
@@ -7183,43 +7183,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M38" t="n">
-        <v>1577.42141205333</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N38" t="n">
-        <v>1577.42141205333</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O38" t="n">
-        <v>2017.461012945658</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P38" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q38" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R38" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S38" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T38" t="n">
-        <v>2142.147902636597</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U38" t="n">
-        <v>1886.395173071196</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V38" t="n">
-        <v>1544.288363774714</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W38" t="n">
-        <v>1237.473926389409</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="X38" t="n">
-        <v>1237.473926389409</v>
+        <v>1548.188828796226</v>
       </c>
       <c r="Y38" t="n">
-        <v>840.9832173100099</v>
+        <v>1548.188828796226</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J39" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K39" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L39" t="n">
-        <v>530.879055999857</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M39" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N39" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O39" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P39" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q39" t="n">
         <v>2365.64850507718</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C40" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D40" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E40" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F40" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G40" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H40" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J40" t="n">
         <v>47.31297010154361</v>
@@ -7356,28 +7356,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R40" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S40" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T40" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U40" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V40" t="n">
-        <v>948.7599926430961</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W40" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X40" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y40" t="n">
-        <v>714.6796704260792</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1645.407563735423</v>
+        <v>1189.691033431305</v>
       </c>
       <c r="C41" t="n">
-        <v>1252.232062238354</v>
+        <v>796.5155319342359</v>
       </c>
       <c r="D41" t="n">
-        <v>866.7909334550213</v>
+        <v>411.0744031509037</v>
       </c>
       <c r="E41" t="n">
-        <v>464.2074085715658</v>
+        <v>371.396020535053</v>
       </c>
       <c r="F41" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="G41" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H41" t="n">
         <v>47.31297010154361</v>
@@ -7414,16 +7414,16 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K41" t="n">
-        <v>550.9450990378335</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L41" t="n">
-        <v>550.9450990378335</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M41" t="n">
-        <v>1096.945999082414</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N41" t="n">
-        <v>1624.757282719876</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O41" t="n">
         <v>1832.61545280471</v>
@@ -7438,25 +7438,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S41" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T41" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U41" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V41" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W41" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X41" t="n">
-        <v>2365.64850507718</v>
+        <v>1586.181742510704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1969.157795997781</v>
+        <v>1189.691033431305</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C42" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D42" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E42" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F42" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G42" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H42" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I42" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J42" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K42" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L42" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M42" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N42" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O42" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P42" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q42" t="n">
         <v>2365.64850507718</v>
@@ -7520,13 +7520,13 @@
         <v>2206.800784875114</v>
       </c>
       <c r="T42" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U42" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V42" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W42" t="n">
         <v>1367.096582257017</v>
@@ -7535,7 +7535,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y42" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="43">
@@ -7599,19 +7599,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T43" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U43" t="n">
-        <v>663.3212008849971</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="V43" t="n">
-        <v>397.3418557058213</v>
+        <v>553.7554333537225</v>
       </c>
       <c r="W43" t="n">
-        <v>114.011453636999</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="X43" t="n">
-        <v>47.31297010154361</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y43" t="n">
         <v>47.31297010154361</v>
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>466.1046008912472</v>
+        <v>1427.641169275121</v>
       </c>
       <c r="C44" t="n">
-        <v>72.9290993941778</v>
+        <v>1427.641169275121</v>
       </c>
       <c r="D44" t="n">
-        <v>47.31297010154361</v>
+        <v>1418.290805874553</v>
       </c>
       <c r="E44" t="n">
-        <v>47.31297010154361</v>
+        <v>1015.707280991098</v>
       </c>
       <c r="F44" t="n">
-        <v>47.31297010154361</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G44" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I44" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K44" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L44" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N44" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q44" t="n">
         <v>2365.64850507718</v>
@@ -7675,25 +7675,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S44" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T44" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U44" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V44" t="n">
-        <v>2023.541695780699</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="W44" t="n">
-        <v>1652.542660748986</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="X44" t="n">
-        <v>1263.090055682043</v>
+        <v>1828.135914986518</v>
       </c>
       <c r="Y44" t="n">
-        <v>866.5993466026441</v>
+        <v>1828.135914986518</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M45" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N45" t="n">
-        <v>1436.116207068686</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O45" t="n">
-        <v>1725.662044805892</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P45" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q45" t="n">
         <v>2365.64850507718</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C46" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D46" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E46" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F46" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G46" t="n">
         <v>47.31297010154361</v>
@@ -7845,13 +7845,13 @@
         <v>397.3418557058213</v>
       </c>
       <c r="W46" t="n">
-        <v>215.5670240020981</v>
+        <v>114.011453636999</v>
       </c>
       <c r="X46" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y46" t="n">
-        <v>215.5670240020981</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>271.0551987388116</v>
       </c>
       <c r="M2" t="n">
-        <v>370.3946742050441</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>379.5248125622476</v>
@@ -7999,7 +7999,7 @@
         <v>380.2624223790764</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,25 +8057,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>196.4724116665307</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N3" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>313.3571814962058</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>320.9491282940651</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M5" t="n">
-        <v>224.2837924789551</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N5" t="n">
-        <v>379.0794664759352</v>
+        <v>369.7881139451009</v>
       </c>
       <c r="O5" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8294,7 +8294,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>319.5579104714845</v>
@@ -8303,7 +8303,7 @@
         <v>320.0213219950694</v>
       </c>
       <c r="M6" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
         <v>85.37211285416666</v>
@@ -8312,10 +8312,10 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q6" t="n">
-        <v>320.9491282940651</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L8" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>149.1184913377841</v>
@@ -8470,10 +8470,10 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P8" t="n">
-        <v>370.971069848242</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8549,10 +8549,10 @@
         <v>322.6485340270401</v>
       </c>
       <c r="P9" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8692,25 +8692,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>363.7280257865542</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L11" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N11" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O11" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,28 +8768,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M12" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>313.3571814962058</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P12" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q12" t="n">
-        <v>320.9491282940651</v>
+        <v>197.4002179655265</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L14" t="n">
-        <v>373.9177923378086</v>
+        <v>271.0551987388116</v>
       </c>
       <c r="M14" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N14" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O14" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P14" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9011,10 +9011,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>310.7299694642351</v>
       </c>
       <c r="M15" t="n">
-        <v>313.0567446566288</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9166,25 +9166,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K17" t="n">
-        <v>505.666843611017</v>
+        <v>470.4637632346382</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M17" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O17" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9245,7 +9245,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9254,16 +9254,16 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N18" t="n">
-        <v>474.5348277078255</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>390.0096609786947</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9409,19 +9409,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>422.8212561536983</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N21" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>320.3351938922088</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>427.440794103012</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N23" t="n">
         <v>682.2612020826953</v>
@@ -9716,19 +9716,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>422.8212561536983</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N24" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L26" t="n">
         <v>651.5514946987026</v>
@@ -9889,7 +9889,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O26" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P26" t="n">
         <v>150.3014472409252</v>
@@ -9953,7 +9953,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9965,7 +9965,7 @@
         <v>683.7992483186069</v>
       </c>
       <c r="N27" t="n">
-        <v>265.8235510992406</v>
+        <v>388.2984090135469</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>143.0584031792374</v>
@@ -10126,10 +10126,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O29" t="n">
-        <v>594.0482827698827</v>
+        <v>410.5393874591622</v>
       </c>
       <c r="P29" t="n">
-        <v>464.6079711628815</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10190,19 +10190,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>588.303013563887</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10211,7 +10211,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
         <v>505.666843611017</v>
@@ -10363,13 +10363,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
-        <v>545.7463662600596</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,19 +10427,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>422.8212561536984</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N33" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10448,7 +10448,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L35" t="n">
         <v>651.5514946987026</v>
@@ -10600,10 +10600,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O35" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>318.4970894367924</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N36" t="n">
-        <v>667.5244230630204</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10831,19 +10831,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>688.2664872512298</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N38" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O38" t="n">
-        <v>594.0482827698827</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N39" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,19 +11062,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>505.666843611017</v>
+        <v>324.3528815085492</v>
       </c>
       <c r="L41" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M41" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O41" t="n">
-        <v>359.5215849845346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P41" t="n">
         <v>502.0059847475129</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>683.7992483186069</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N42" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>235.8239269133934</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
         <v>505.666843611017</v>
@@ -11311,13 +11311,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O44" t="n">
-        <v>545.7463662600596</v>
+        <v>212.9227975229111</v>
       </c>
       <c r="P44" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11384,19 +11384,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>385.1581020577846</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22552,16 +22552,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>216.6500751711487</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -22606,16 +22606,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22628,25 +22628,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>76.46084574774152</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>72.45597860490776</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -22707,10 +22707,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>136.4356843632904</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004151</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22722,13 +22722,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>179.0370905938155</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>221.1773736001872</v>
       </c>
       <c r="U5" t="n">
         <v>23.23422713159621</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>137.3280695432443</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22862,19 +22862,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -22919,19 +22919,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.9861802853149</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="7">
@@ -22941,25 +22941,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>89.75118923825899</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -22998,16 +22998,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>80.03477693883457</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23023,22 +23023,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>118.2925930274908</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23074,10 +23074,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>18.71596951449399</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -23102,10 +23102,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1476881355087</v>
+        <v>8.695805693785246</v>
       </c>
       <c r="D9" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>135.0820259802211</v>
@@ -23159,7 +23159,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>128.5957162214335</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="10">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -23196,7 +23196,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -23226,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>154.2588521405743</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -23247,7 +23247,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>203.7690734119463</v>
       </c>
     </row>
     <row r="11">
@@ -23266,16 +23266,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>196.0080627329374</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>182.7645189471708</v>
+        <v>366.3289079700248</v>
       </c>
       <c r="G11" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23308,10 +23308,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
@@ -23339,7 +23339,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C12" t="n">
-        <v>149.1476881355087</v>
+        <v>81.2587319493058</v>
       </c>
       <c r="D12" t="n">
         <v>128.7880777047345</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T12" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>128.5957162214335</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>92.52615047549034</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.5715133615489</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V13" t="n">
-        <v>154.2588521405743</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
         <v>280.4970980481341</v>
@@ -23500,22 +23500,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>179.0370905938154</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>90.55715962316265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23576,25 +23576,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C15" t="n">
-        <v>149.1476881355087</v>
+        <v>56.19901399253958</v>
       </c>
       <c r="D15" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y15" t="n">
-        <v>128.5957162214335</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="16">
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004151</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>30.81223441176471</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -23746,7 +23746,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>406.937000683982</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>227.8352342700393</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.5715133615489</v>
@@ -23940,7 +23940,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>5.549913401644176</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>116.4854777676762</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35.0199522230015</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>130.658681023514</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
         <v>136.9537457384598</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>115.8739573643868</v>
       </c>
       <c r="H22" t="n">
         <v>153.923765528121</v>
@@ -24180,7 +24180,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>282.5844038405181</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.12369447580224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>90.42186815757896</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0.4120430577422667</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24271,10 +24271,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>48.00233521061847</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.61842587084078</v>
       </c>
       <c r="H25" t="n">
         <v>153.923765528121</v>
@@ -24414,7 +24414,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
         <v>233.3618613134482</v>
@@ -24423,16 +24423,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>150.5625146043469</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>214.0851844479445</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24615,7 +24615,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
         <v>153.923765528121</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>14.3066633162729</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>51.62668320889867</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24685,7 +24685,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>84.83273055131718</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>108.0908336090192</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24858,10 +24858,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>34.10300661235622</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>154.8494418714223</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>227.8352342700394</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24973,7 +24973,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>341.6739033512392</v>
       </c>
     </row>
     <row r="33">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>120.0714221183691</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25092,10 +25092,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>227.4607133389883</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>66.25943416337122</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>106.0232296823125</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,19 +25323,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>100.0548690627372</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>134.7564242791755</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>55.28943149825852</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>63.54275166994313</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>131.3961136083778</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>227.4607133389883</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>75.97706831454809</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>359.2760908449287</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25678,10 +25678,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>105.6268993443524</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>165.7080202947459</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>356.2267494957911</v>
+        <v>372.3298577289365</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
@@ -25924,16 +25924,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
         <v>153.923765528121</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>100.5400146614481</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>165.7080202947459</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>421078.1149834106</v>
+        <v>421078.1149834107</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>421078.1149834106</v>
+        <v>421078.1149834107</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>421078.1149834107</v>
+        <v>421078.1149834106</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>421078.1149834107</v>
+        <v>421078.1149834106</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>678036.4069273432</v>
+        <v>678036.4069273425</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678036.4069273428</v>
+        <v>678036.4069273424</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>678036.4069273428</v>
+        <v>678036.4069273431</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>678036.4069273429</v>
+        <v>678036.4069273432</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678036.4069273425</v>
+        <v>678036.4069273429</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>678036.4069273429</v>
+        <v>678036.4069273432</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>678036.4069273431</v>
+        <v>678036.4069273429</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91190.60188992735</v>
+        <v>91190.60188992739</v>
       </c>
       <c r="C2" t="n">
+        <v>91190.60188992741</v>
+      </c>
+      <c r="D2" t="n">
         <v>91190.60188992739</v>
-      </c>
-      <c r="D2" t="n">
-        <v>91190.60188992741</v>
       </c>
       <c r="E2" t="n">
         <v>91190.60188992739</v>
       </c>
       <c r="F2" t="n">
-        <v>91190.60188992736</v>
+        <v>91190.60188992739</v>
       </c>
       <c r="G2" t="n">
         <v>146808.4351127587</v>
@@ -26355,7 +26355,7 @@
         <v>146808.4351127587</v>
       </c>
       <c r="P2" t="n">
-        <v>146808.4351127586</v>
+        <v>146808.4351127587</v>
       </c>
     </row>
     <row r="3">
@@ -26435,7 +26435,7 @@
         <v>34799.20444337102</v>
       </c>
       <c r="H4" t="n">
-        <v>34799.20444337101</v>
+        <v>34799.20444337102</v>
       </c>
       <c r="I4" t="n">
         <v>34799.20444337101</v>
@@ -26447,19 +26447,19 @@
         <v>34799.20444337102</v>
       </c>
       <c r="L4" t="n">
-        <v>34799.20444337103</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="M4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="N4" t="n">
-        <v>34799.20444337103</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="O4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="P4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54925.64728221</v>
+        <v>-56027.50289475948</v>
       </c>
       <c r="C6" t="n">
-        <v>22139.56458901265</v>
+        <v>21037.70897646315</v>
       </c>
       <c r="D6" t="n">
-        <v>22139.56458901266</v>
+        <v>21037.70897646313</v>
       </c>
       <c r="E6" t="n">
-        <v>55767.16458901265</v>
+        <v>54665.30897646314</v>
       </c>
       <c r="F6" t="n">
-        <v>55767.16458901262</v>
+        <v>54665.30897646314</v>
       </c>
       <c r="G6" t="n">
-        <v>-23016.96536556508</v>
+        <v>-23690.99149178507</v>
       </c>
       <c r="H6" t="n">
-        <v>76051.3733922145</v>
+        <v>75377.3472659945</v>
       </c>
       <c r="I6" t="n">
-        <v>76051.37339221453</v>
+        <v>75377.34726599455</v>
       </c>
       <c r="J6" t="n">
-        <v>15883.46401316804</v>
+        <v>15209.43788694799</v>
       </c>
       <c r="K6" t="n">
-        <v>76051.37339221453</v>
+        <v>75377.3472659945</v>
       </c>
       <c r="L6" t="n">
-        <v>76051.37339221449</v>
+        <v>75377.3472659945</v>
       </c>
       <c r="M6" t="n">
-        <v>76051.3733922145</v>
+        <v>75377.34726599447</v>
       </c>
       <c r="N6" t="n">
-        <v>76051.37339221449</v>
+        <v>75377.34726599447</v>
       </c>
       <c r="O6" t="n">
-        <v>-10932.20757864641</v>
+        <v>-11606.23370486642</v>
       </c>
       <c r="P6" t="n">
-        <v>76051.37339221447</v>
+        <v>75377.3472659945</v>
       </c>
     </row>
   </sheetData>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>229.9609751381512</v>
@@ -34719,7 +34719,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>229.9609751381512</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N5" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O5" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>229.9609751381512</v>
@@ -35023,7 +35023,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="M6" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q6" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P8" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="N11" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O12" t="n">
-        <v>220.6696226073169</v>
       </c>
       <c r="P12" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>220.6696226073169</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M15" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>362.6084404317796</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M17" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35974,16 +35974,16 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N18" t="n">
-        <v>389.1627148536588</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>302.92629615938</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>330.4341341043864</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N21" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>274.1926243725203</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>330.4341341043864</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N24" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36685,7 +36685,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="N27" t="n">
-        <v>180.451438245074</v>
+        <v>302.9262961593802</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36846,10 +36846,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>260.9755500350659</v>
       </c>
       <c r="P29" t="n">
-        <v>314.3065239219563</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>495.9158915145751</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36931,7 +36931,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37083,13 +37083,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>396.1825288359632</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>330.4341341043865</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N33" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37168,7 +37168,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37320,10 +37320,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>168.1956421958672</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N36" t="n">
-        <v>582.1523102088538</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37551,19 +37551,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>538.5414356535026</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>362.6084404317796</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M41" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O41" t="n">
-        <v>209.9577475604382</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
         <v>351.7045375065877</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N42" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>148.7405620940788</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
         <v>362.6084404317796</v>
@@ -38031,13 +38031,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>396.1825288359632</v>
+        <v>63.35896009881473</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38104,19 +38104,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>292.4705431688957</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
